--- a/homeworks/CF_HW_3_2022_Ans.xlsx
+++ b/homeworks/CF_HW_3_2022_Ans.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10926"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmcolon1/Dropbox/Corp Finance/Problems/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmcolon1/Dropbox/Corp Finance/Corp Fin Web/Corporate-Finance/homeworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2D930B-0C35-D744-9325-6A35167FD3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DBDD1C-B3F9-1949-9F4F-BF855EBC43EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="2500" windowWidth="23500" windowHeight="24340" xr2:uid="{6A4A89BC-F369-8143-8C40-9D548CEE7B1D}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t>As discussed in connection with the Amoco case, for a given initial investment, the order of returns doesn't matter.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1(f) demonstrates, however, that the order or sequence of returns matters when you are adding (or removing) capital. </t>
   </si>
   <si>
     <t>It's generally better to have lower returns on lower balances.  Unfortunately you won't be able to control this,</t>
@@ -580,6 +577,21 @@
   </si>
   <si>
     <t>Percentage change in bond price</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1(f) demonstrates, however, that the order or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">sequence of returns matters when you are adding (or removing) capital. </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2957,8 +2969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0797D0A-D3D4-B749-8CFB-509443607DBA}">
   <dimension ref="B1:I278"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="I235" sqref="I235"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2990,7 +3002,7 @@
     </row>
     <row r="4" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
@@ -3126,7 +3138,7 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I23" s="30"/>
     </row>
@@ -3588,19 +3600,19 @@
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" s="29" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="I52" s="17"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I53" s="17"/>
     </row>
     <row r="54" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B54" s="40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C54" s="41"/>
       <c r="D54" s="41"/>
@@ -3613,7 +3625,7 @@
     <row r="56" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
@@ -3625,7 +3637,7 @@
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I58" s="17"/>
     </row>
@@ -3671,35 +3683,35 @@
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C64" s="26">
         <f>IRR(C59:C62)</f>
         <v>5.0000000000006706E-2</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I64" s="17"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B65" s="45"/>
       <c r="D65" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I65" s="17"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B66" s="45"/>
       <c r="D66" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I66" s="17"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B67" s="45"/>
       <c r="D67" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I67" s="17"/>
     </row>
@@ -3762,17 +3774,17 @@
     <row r="82" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B82" s="25"/>
       <c r="C82" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="I82" s="17"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B83" s="25"/>
       <c r="D83" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I83" s="17"/>
     </row>
@@ -3783,7 +3795,7 @@
         <v>0.2000000000005826</v>
       </c>
       <c r="D84" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I84" s="17"/>
     </row>
@@ -3791,7 +3803,7 @@
       <c r="B85" s="46"/>
       <c r="C85" s="41"/>
       <c r="D85" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E85" s="41"/>
       <c r="F85" s="41"/>
@@ -3802,7 +3814,7 @@
     <row r="86" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="87" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B87" s="47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
@@ -3814,7 +3826,7 @@
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B88" s="48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C88" s="16"/>
       <c r="I88" s="17"/>
@@ -3825,7 +3837,7 @@
         <v>884.35374149659765</v>
       </c>
       <c r="C89" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I89" s="17"/>
     </row>
@@ -3835,19 +3847,19 @@
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B91" s="48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I91" s="17"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B92" s="45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I92" s="17"/>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B93" s="45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I93" s="17"/>
     </row>
@@ -3857,7 +3869,7 @@
         <v>1.9417475728155331E-2</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I94" s="17"/>
     </row>
@@ -3871,7 +3883,7 @@
         <v>11311.150909605052</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I96" s="17"/>
     </row>
@@ -3881,7 +3893,7 @@
         <v>10884.353741496599</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I97" s="17"/>
     </row>
@@ -3895,7 +3907,7 @@
         <v>884.35374149659947</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I99" s="17"/>
     </row>
@@ -3906,14 +3918,14 @@
     <row r="101" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B101" s="45"/>
       <c r="C101" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I101" s="17"/>
     </row>
     <row r="102" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B102" s="53"/>
       <c r="C102" s="41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D102" s="41"/>
       <c r="E102" s="41"/>
@@ -3927,7 +3939,7 @@
     </row>
     <row r="104" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B104" s="47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C104" s="13"/>
       <c r="D104" s="13"/>
@@ -3940,14 +3952,14 @@
     <row r="105" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B105" s="25"/>
       <c r="C105" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I105" s="17"/>
     </row>
     <row r="106" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B106" s="46"/>
       <c r="C106" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D106" s="41"/>
       <c r="E106" s="41"/>
@@ -3959,7 +3971,7 @@
     <row r="108" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="109" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B109" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C109" s="13"/>
       <c r="D109" s="13"/>
@@ -3971,41 +3983,41 @@
     </row>
     <row r="110" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B110" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I110" s="17"/>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B111" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="I111" s="17"/>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B112" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="I112" s="17"/>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B113" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="I113" s="17"/>
     </row>
     <row r="114" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B114" s="25"/>
       <c r="C114" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I114" s="17"/>
     </row>
@@ -4017,10 +4029,10 @@
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B116" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C116" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="I116" s="17"/>
     </row>
@@ -4031,7 +4043,7 @@
     <row r="118" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B118" s="45"/>
       <c r="C118" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I118" s="17"/>
     </row>
@@ -4040,14 +4052,14 @@
         <v>9</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I119" s="17"/>
     </row>
     <row r="120" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B120" s="53"/>
       <c r="C120" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D120" s="41"/>
       <c r="E120" s="41"/>
@@ -4059,7 +4071,7 @@
     <row r="122" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="123" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B123" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C123" s="13"/>
       <c r="D123" s="13"/>
@@ -4071,22 +4083,22 @@
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B124" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C124" s="2">
         <v>-918</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I124" s="17"/>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B125" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C125" s="2">
         <v>50</v>
@@ -4095,7 +4107,7 @@
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B126" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C126" s="2">
         <v>5</v>
@@ -4104,7 +4116,7 @@
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B127" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C127" s="2">
         <v>1000</v>
@@ -4113,7 +4125,7 @@
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B128" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C128" s="2">
         <v>7.0000000000000007E-2</v>
@@ -4132,22 +4144,22 @@
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B131" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C131" s="2">
         <v>-932.26</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I131" s="17"/>
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B132" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C132" s="2">
         <v>50</v>
@@ -4156,19 +4168,19 @@
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B133" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C133" s="55">
         <v>4</v>
       </c>
       <c r="D133" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I133" s="17"/>
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B134" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C134" s="2">
         <v>1000</v>
@@ -4177,7 +4189,7 @@
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B135" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C135" s="2">
         <v>7.0000000000000007E-2</v>
@@ -4190,7 +4202,7 @@
     </row>
     <row r="137" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="87" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C137" s="88"/>
       <c r="D137" s="88"/>
@@ -4232,7 +4244,7 @@
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B141" s="87" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C141" s="88"/>
       <c r="D141" s="88"/>
@@ -4281,7 +4293,7 @@
         <v>9</v>
       </c>
       <c r="C146" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D146" s="41"/>
       <c r="E146" s="41"/>
@@ -4293,7 +4305,7 @@
     <row r="147" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="148" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B148" s="56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C148" s="57"/>
       <c r="D148" s="57"/>
@@ -4305,7 +4317,7 @@
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B149" s="58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C149" s="59">
         <v>1.4999999999999999E-2</v>
@@ -4317,7 +4329,7 @@
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B150" s="58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C150" s="59">
         <v>0.02</v>
@@ -4329,7 +4341,7 @@
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B151" s="58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C151" s="59">
         <v>3.5000000000000003E-2</v>
@@ -4341,14 +4353,14 @@
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B152" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C152" s="59">
         <f>C149</f>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
@@ -4356,14 +4368,14 @@
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B153" s="58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C153" s="59">
         <f>(1+C150)^2/(1+C149)-1</f>
         <v>2.5024630541871984E-2</v>
       </c>
       <c r="D153" s="60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
@@ -4371,14 +4383,14 @@
     </row>
     <row r="154" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B154" s="58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C154" s="59">
         <f>(1+C151)^3/(1+C150)^2-1</f>
         <v>6.566500865051883E-2</v>
       </c>
       <c r="D154" s="60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
@@ -4394,7 +4406,7 @@
     </row>
     <row r="156" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B156" s="56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C156" s="61"/>
       <c r="D156" s="5"/>
@@ -4404,14 +4416,14 @@
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B157" s="62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C157" s="63">
         <f>30/(1+C149)+1030/(1+C150)^2</f>
         <v>1019.5604949214303</v>
       </c>
       <c r="D157" s="60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
@@ -4419,7 +4431,7 @@
     </row>
     <row r="158" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B158" s="64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C158" s="65"/>
       <c r="D158" s="60"/>
@@ -4429,7 +4441,7 @@
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B159" s="64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C159" s="65"/>
       <c r="D159" s="60"/>
@@ -4447,14 +4459,14 @@
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B161" s="62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C161" s="66">
         <f>RATE(2,30,-C157,1000)</f>
         <v>1.9926462666940946E-2</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
@@ -4464,7 +4476,7 @@
       <c r="B162" s="10"/>
       <c r="C162" s="61"/>
       <c r="D162" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
@@ -4474,7 +4486,7 @@
       <c r="B163" s="10"/>
       <c r="C163" s="61"/>
       <c r="D163" s="60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
@@ -4482,7 +4494,7 @@
     </row>
     <row r="164" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B164" s="56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C164" s="61"/>
       <c r="D164" s="5"/>
@@ -4492,14 +4504,14 @@
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B165" s="62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C165" s="63">
         <f>30/(1+C149)+30/(1+C150)^2+1030/(1+C151)^3</f>
         <v>987.392700521508</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
@@ -4507,14 +4519,14 @@
     </row>
     <row r="166" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B166" s="62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C166" s="66">
         <f>RATE(3,30,-C165,1000)</f>
         <v>3.4495641362262845E-2</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
@@ -4524,7 +4536,7 @@
       <c r="B167" s="10"/>
       <c r="C167" s="61"/>
       <c r="D167" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
@@ -4534,7 +4546,7 @@
       <c r="B168" s="10"/>
       <c r="C168" s="61"/>
       <c r="D168" s="60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
@@ -4550,7 +4562,7 @@
     </row>
     <row r="170" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B170" s="56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
@@ -4560,14 +4572,14 @@
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B171" s="62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C171" s="63">
         <f>50/(1+C149)+50/(1+C150)^2+1050/(1+C151)^3</f>
         <v>1044.3593637571651</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
@@ -4575,14 +4587,14 @@
     </row>
     <row r="172" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B172" s="62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C172" s="66">
         <f>RATE(3,50,-C171,1000)</f>
         <v>3.4191086407447703E-2</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
@@ -4592,7 +4604,7 @@
       <c r="B173" s="10"/>
       <c r="C173" s="61"/>
       <c r="D173" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
@@ -4602,7 +4614,7 @@
       <c r="B174" s="10"/>
       <c r="C174" s="5"/>
       <c r="D174" s="60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
@@ -4621,7 +4633,7 @@
         <v>9</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
@@ -4631,7 +4643,7 @@
     <row r="177" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B177" s="10"/>
       <c r="C177" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
@@ -4641,7 +4653,7 @@
     <row r="178" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B178" s="10"/>
       <c r="C178" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
@@ -4668,14 +4680,14 @@
     </row>
     <row r="181" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B181" s="62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C181" s="67">
         <f>50000/(1+C149)+50000/(1+C150)^2+50000/(1+C151)^3</f>
         <v>142416.65808914276</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
@@ -4683,13 +4695,13 @@
     </row>
     <row r="182" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B182" s="62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C182" s="66">
         <v>2.64E-2</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
@@ -4699,7 +4711,7 @@
       <c r="B183" s="10"/>
       <c r="C183" s="68"/>
       <c r="D183" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
@@ -4709,7 +4721,7 @@
       <c r="B184" s="10"/>
       <c r="C184" s="5"/>
       <c r="D184" s="60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
@@ -4719,7 +4731,7 @@
       <c r="B185" s="69"/>
       <c r="C185" s="70"/>
       <c r="D185" s="70" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E185" s="70"/>
       <c r="F185" s="70"/>
@@ -4736,7 +4748,7 @@
     </row>
     <row r="187" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B187" s="71" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C187" s="57"/>
       <c r="D187" s="57"/>
@@ -4748,7 +4760,7 @@
     </row>
     <row r="188" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B188" s="72" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
@@ -4758,14 +4770,14 @@
     </row>
     <row r="189" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B189" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C189" s="73">
         <f>1050/1.1</f>
         <v>954.5454545454545</v>
       </c>
       <c r="D189" s="60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
@@ -4784,7 +4796,7 @@
         <v>6</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
@@ -4802,7 +4814,7 @@
         <v>9</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
@@ -4820,7 +4832,7 @@
         <v>12</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
@@ -4829,7 +4841,7 @@
     <row r="196" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B196" s="10"/>
       <c r="C196" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
@@ -4845,7 +4857,7 @@
     <row r="198" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B198" s="10"/>
       <c r="C198" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
@@ -4854,7 +4866,7 @@
     <row r="199" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B199" s="10"/>
       <c r="C199" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
@@ -4863,7 +4875,7 @@
     <row r="200" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B200" s="10"/>
       <c r="C200" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
@@ -4872,7 +4884,7 @@
     <row r="201" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B201" s="10"/>
       <c r="C201" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
@@ -4881,7 +4893,7 @@
     <row r="202" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B202" s="10"/>
       <c r="C202" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
@@ -4897,7 +4909,7 @@
     <row r="204" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B204" s="10"/>
       <c r="C204" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
@@ -4906,7 +4918,7 @@
     <row r="205" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B205" s="69"/>
       <c r="C205" s="70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D205" s="70"/>
       <c r="E205" s="70"/>
@@ -4918,7 +4930,7 @@
     <row r="206" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="207" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B207" s="71" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C207" s="57"/>
       <c r="D207" s="57"/>
@@ -4938,7 +4950,7 @@
     </row>
     <row r="209" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B209" s="56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
@@ -4948,14 +4960,14 @@
     </row>
     <row r="210" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B210" s="62" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C210" s="74">
         <f>MDURATION(C211,C212,C214,C213,C217,C218)</f>
         <v>19.600441349469776</v>
       </c>
       <c r="D210" s="75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E210" s="5"/>
       <c r="F210" s="5"/>
@@ -4963,7 +4975,7 @@
     </row>
     <row r="211" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B211" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C211" s="76">
         <v>44562</v>
@@ -4975,7 +4987,7 @@
     </row>
     <row r="212" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B212" s="58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C212" s="76">
         <v>55519</v>
@@ -4987,7 +4999,7 @@
     </row>
     <row r="213" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B213" s="58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C213" s="77">
         <v>0.03</v>
@@ -4999,7 +5011,7 @@
     </row>
     <row r="214" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B214" s="58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C214" s="77">
         <v>0.03</v>
@@ -5011,7 +5023,7 @@
     </row>
     <row r="215" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B215" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C215" s="61">
         <v>100</v>
@@ -5023,7 +5035,7 @@
     </row>
     <row r="216" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B216" s="58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C216" s="61">
         <v>100</v>
@@ -5035,7 +5047,7 @@
     </row>
     <row r="217" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B217" s="58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C217" s="61">
         <v>1</v>
@@ -5047,7 +5059,7 @@
     </row>
     <row r="218" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B218" s="58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C218" s="61">
         <v>0</v>
@@ -5077,14 +5089,14 @@
     </row>
     <row r="221" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B221" s="62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C221" s="78">
         <f>PRICE(C222,C223,C225,C224,C227,C228,C229)</f>
         <v>82.707966699335415</v>
       </c>
       <c r="D221" s="75" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E221" s="5"/>
       <c r="F221" s="5"/>
@@ -5092,7 +5104,7 @@
     </row>
     <row r="222" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B222" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C222" s="76">
         <v>44562</v>
@@ -5104,7 +5116,7 @@
     </row>
     <row r="223" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B223" s="58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C223" s="76">
         <v>55519</v>
@@ -5116,13 +5128,13 @@
     </row>
     <row r="224" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B224" s="79" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C224" s="80">
         <v>0.04</v>
       </c>
       <c r="D224" s="81" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E224" s="5"/>
       <c r="F224" s="5"/>
@@ -5130,7 +5142,7 @@
     </row>
     <row r="225" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B225" s="58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C225" s="77">
         <v>0.03</v>
@@ -5142,7 +5154,7 @@
     </row>
     <row r="226" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B226" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C226" s="61">
         <v>100</v>
@@ -5154,7 +5166,7 @@
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B227" s="58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C227" s="61">
         <v>100</v>
@@ -5166,7 +5178,7 @@
     </row>
     <row r="228" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B228" s="58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C228" s="61">
         <v>1</v>
@@ -5178,7 +5190,7 @@
     </row>
     <row r="229" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B229" s="58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C229" s="61">
         <v>0</v>
@@ -5202,10 +5214,10 @@
         <v>-0.17292033300664586</v>
       </c>
       <c r="C231" s="75" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D231" s="86" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E231" s="5"/>
       <c r="F231" s="5"/>
@@ -5231,14 +5243,14 @@
     </row>
     <row r="234" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B234" s="62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C234" s="78">
         <f>PRICE(C235,C236,C238,C237,C240,C241,C242)</f>
         <v>122.39645555100441</v>
       </c>
       <c r="D234" s="75" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E234" s="5"/>
       <c r="F234" s="5"/>
@@ -5246,7 +5258,7 @@
     </row>
     <row r="235" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B235" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C235" s="76">
         <v>44562</v>
@@ -5258,7 +5270,7 @@
     </row>
     <row r="236" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B236" s="58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C236" s="76">
         <v>55519</v>
@@ -5270,13 +5282,13 @@
     </row>
     <row r="237" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B237" s="84" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C237" s="85">
         <v>0.02</v>
       </c>
       <c r="D237" s="81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E237" s="5"/>
       <c r="F237" s="5"/>
@@ -5284,7 +5296,7 @@
     </row>
     <row r="238" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B238" s="58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C238" s="77">
         <v>0.03</v>
@@ -5296,7 +5308,7 @@
     </row>
     <row r="239" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B239" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C239" s="61">
         <v>100</v>
@@ -5308,7 +5320,7 @@
     </row>
     <row r="240" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B240" s="58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C240" s="61">
         <v>100</v>
@@ -5320,7 +5332,7 @@
     </row>
     <row r="241" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B241" s="58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C241" s="61">
         <v>1</v>
@@ -5332,7 +5344,7 @@
     </row>
     <row r="242" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B242" s="58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C242" s="61">
         <v>0</v>
@@ -5356,10 +5368,10 @@
         <v>0.22396455551004407</v>
       </c>
       <c r="C244" s="75" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D244" s="86" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E244" s="5"/>
       <c r="F244" s="5"/>
@@ -5397,7 +5409,7 @@
         <v>0.19600441349469777</v>
       </c>
       <c r="C248" s="86" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D248" s="5"/>
       <c r="E248" s="5"/>
@@ -5407,7 +5419,7 @@
     <row r="249" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B249" s="10"/>
       <c r="C249" s="86" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D249" s="5"/>
       <c r="E249" s="5"/>
@@ -5427,7 +5439,7 @@
         <v>14</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D251" s="5"/>
       <c r="E251" s="5"/>
@@ -5437,7 +5449,7 @@
     <row r="252" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B252" s="10"/>
       <c r="C252" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D252" s="5"/>
       <c r="E252" s="5"/>
@@ -5447,7 +5459,7 @@
     <row r="253" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B253" s="10"/>
       <c r="C253" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D253" s="5"/>
       <c r="E253" s="5"/>
@@ -5457,7 +5469,7 @@
     <row r="254" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B254" s="10"/>
       <c r="C254" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D254" s="5"/>
       <c r="E254" s="5"/>
@@ -5467,7 +5479,7 @@
     <row r="255" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B255" s="10"/>
       <c r="C255" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D255" s="5"/>
       <c r="E255" s="5"/>
@@ -5631,7 +5643,7 @@
         <v>17</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D275" s="5"/>
       <c r="E275" s="5"/>
@@ -5641,7 +5653,7 @@
     <row r="276" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B276" s="10"/>
       <c r="C276" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D276" s="5"/>
       <c r="E276" s="5"/>
@@ -5651,7 +5663,7 @@
     <row r="277" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B277" s="69"/>
       <c r="C277" s="70" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D277" s="70"/>
       <c r="E277" s="70"/>
